--- a/홍성인/R_Project_2021/res/sample1.xlsx
+++ b/홍성인/R_Project_2021/res/sample1.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -559,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -663,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
